--- a/admin_panel/module list.xlsx
+++ b/admin_panel/module list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\admin_panel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA70E5C-6386-47FB-9518-0E214E4ECBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BE57B-A659-4D3F-BE07-529A83DCD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Main Module</t>
   </si>
@@ -113,6 +113,95 @@
 19. Ad Banner Image List for TESTING
 20. Search Ad Banner Image List 
 21. Apps Dynamic Menu Management</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Add New Campaign
+2. Search Campaign List
+3. Edit Campaign
+4. Edit Discount for Campaign
+5. Assign Campaign (Assign reseller)
+6. Add Affiliator Client
+7. Search Affiliator Client
+8. Edit Reseller Client
+9. Search Affiliate Withdraw TNX
+10. Add new Payment Gateways
+11. Search Affiliator Payment Gateways
+12. Edit Payment Gateway
+13. Search Affiliator Sign Up Requests
+14. Search Website Form Requests
+15. Edit Request (servers)
+16. Edit Request (right_for_us)
+17. Edit Request Student Ambassador Request
+18. Add New Offer Banners Rule
+19. Search VPN Offer Sliders
+</t>
+  </si>
+  <si>
+    <t>Rate Section</t>
+  </si>
+  <si>
+    <t>1. Add New Rate Plan
+2. Search Rate Plan
+3. Edit Subscription Plan</t>
+  </si>
+  <si>
+    <t>Referrals</t>
+  </si>
+  <si>
+    <t>1. Search Referral Bonus Transaction Report
+2. Search premium validity for free users
+3. Search referral code user list</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Purchase management</t>
+  </si>
+  <si>
+    <t>1. Add new payment method
+2. edit payment method
+3. Add new event code
+4. Add new event actions
+5. Add sub event code
+6. Search purchase attempt logs</t>
+  </si>
+  <si>
+    <t>User &amp; Permission</t>
+  </si>
+  <si>
+    <t>1. New admin creation
+2. Update admin
+3. Search Role List
+4. add new role
+5. edit role
+6. Search Role User List
+7. Add new Menu Permission (role)
+8. Search Role Menu Permission List
+9. Search User Menu Permission List
+10. Add New Menu Permission</t>
+  </si>
+  <si>
+    <t>Subscription Code</t>
+  </si>
+  <si>
+    <t>1. Search PIN
+2. Add new pin batch (code generation)</t>
+  </si>
+  <si>
+    <t>1. Profile Information
+2. Application &amp; Variable Settings
+3. Add new admin panel
+4. Search Admin Panel List
+5. Add new signup blacklist domain
+6. search signup blacklist domain
+7. Edit domain Information
+8. Add CRC
+9. Search App CRC Block List
+10. Edit app CRC</t>
   </si>
 </sst>
 </file>
@@ -537,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42510D9C-CA0E-41F9-8115-5778359CB91A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,45 +708,73 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:4" ht="285" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:4" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:4" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>

--- a/admin_panel/module list.xlsx
+++ b/admin_panel/module list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\admin_panel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\admin_panel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BE57B-A659-4D3F-BE07-529A83DCD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716ED4D-820C-436C-B949-3E24C04DE976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin_panel_features_list" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Main Module</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>PINS</t>
-  </si>
-  <si>
-    <t>1. add_jail_pins (suspicious_list)
-2. Add PIN validity
-3. Online Pin Activation
-4. Online PIN Migration
-5. Send Background Push
-6. Search PIN
-7. Search PIN Batch
-8. Search Reseller Connected PINs
-9. Search Device Wise Reseller PINs
-10. Search PIN return Request</t>
   </si>
   <si>
     <t>Reseller</t>
@@ -118,11 +106,75 @@
     <t>Campaign</t>
   </si>
   <si>
+    <t>Rate Section</t>
+  </si>
+  <si>
+    <t>1. Add New Rate Plan
+2. Search Rate Plan
+3. Edit Subscription Plan</t>
+  </si>
+  <si>
+    <t>Referrals</t>
+  </si>
+  <si>
+    <t>1. Search Referral Bonus Transaction Report
+2. Search premium validity for free users
+3. Search referral code user list</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Purchase management</t>
+  </si>
+  <si>
+    <t>1. Add new payment method
+2. edit payment method
+3. Add new event code
+4. Add new event actions
+5. Add sub event code
+6. Search purchase attempt logs</t>
+  </si>
+  <si>
+    <t>User &amp; Permission</t>
+  </si>
+  <si>
+    <t>1. New admin creation
+2. Update admin
+3. Search Role List
+4. add new role
+5. edit role
+6. Search Role User List
+7. Add new Menu Permission (role)
+8. Search Role Menu Permission List
+9. Search User Menu Permission List
+10. Add New Menu Permission</t>
+  </si>
+  <si>
+    <t>Subscription Code</t>
+  </si>
+  <si>
+    <t>1. Search PIN
+2. Add new pin batch (code generation)</t>
+  </si>
+  <si>
+    <t>1. Profile Information
+2. Application &amp; Variable Settings
+3. Add new admin panel
+4. Search Admin Panel List
+5. Add new signup blacklist domain
+6. search signup blacklist domain
+7. Edit domain Information
+8. Add CRC
+9. Search App CRC Block List
+10. Edit app CRC</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Add New Campaign
 2. Search Campaign List
 3. Edit Campaign
 4. Edit Discount for Campaign
-5. Assign Campaign (Assign reseller)
+5. Assign Campaign (Assign reseller) (edit)
 6. Add Affiliator Client
 7. Search Affiliator Client
 8. Edit Reseller Client
@@ -140,75 +192,59 @@
 </t>
   </si>
   <si>
-    <t>Rate Section</t>
-  </si>
-  <si>
-    <t>1. Add New Rate Plan
-2. Search Rate Plan
-3. Edit Subscription Plan</t>
-  </si>
-  <si>
-    <t>Referrals</t>
-  </si>
-  <si>
-    <t>1. Search Referral Bonus Transaction Report
-2. Search premium validity for free users
-3. Search referral code user list</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Purchase management</t>
-  </si>
-  <si>
-    <t>1. Add new payment method
-2. edit payment method
-3. Add new event code
-4. Add new event actions
-5. Add sub event code
-6. Search purchase attempt logs</t>
-  </si>
-  <si>
-    <t>User &amp; Permission</t>
-  </si>
-  <si>
-    <t>1. New admin creation
-2. Update admin
-3. Search Role List
-4. add new role
-5. edit role
-6. Search Role User List
-7. Add new Menu Permission (role)
-8. Search Role Menu Permission List
-9. Search User Menu Permission List
-10. Add New Menu Permission</t>
-  </si>
-  <si>
-    <t>Subscription Code</t>
-  </si>
-  <si>
-    <t>1. Search PIN
-2. Add new pin batch (code generation)</t>
-  </si>
-  <si>
-    <t>1. Profile Information
-2. Application &amp; Variable Settings
-3. Add new admin panel
-4. Search Admin Panel List
-5. Add new signup blacklist domain
-6. search signup blacklist domain
-7. Edit domain Information
-8. Add CRC
-9. Search App CRC Block List
-10. Edit app CRC</t>
+    <t xml:space="preserve">1. add_jail_pins (suspicious_list)
+2. Add PIN validity
+3. Online Pin Activation
+4. Online PIN Migration
+5. Send Background Push
+6. Search PIN
+7. Search PIN Batch
+8. Search Reseller Connected PINs
+9. Search Device Wise Reseller PINs
+10. Search PIN Return Request                                                                         </t>
+  </si>
+  <si>
+    <t>1 day (search list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+1= 2 </t>
+  </si>
+  <si>
+    <t>1+1=2</t>
+  </si>
+  <si>
+    <t>Report Online Pins</t>
+  </si>
+  <si>
+    <t>reseller report online pin</t>
+  </si>
+  <si>
+    <t>3-4days</t>
+  </si>
+  <si>
+    <t>report log-</t>
+  </si>
+  <si>
+    <t>server connection</t>
+  </si>
+  <si>
+    <t>payment and recharge</t>
+  </si>
+  <si>
+    <t>email report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reseller report </t>
+  </si>
+  <si>
+    <t>ssl com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +282,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +322,14 @@
         <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,11 +352,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -343,6 +482,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42510D9C-CA0E-41F9-8115-5778359CB91A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +828,7 @@
     <col min="5" max="5" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,161 +838,332 @@
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="312.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="312.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="285" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="285" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
